--- a/Docs do Projecto/Modulos de actividades.xlsx
+++ b/Docs do Projecto/Modulos de actividades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAPDR\Docs do Projecto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="11760" windowHeight="5760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,7 @@
     <sheet name="ES" sheetId="4" r:id="rId4"/>
     <sheet name="notas" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -524,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
@@ -842,6 +846,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -849,7 +856,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -887,9 +894,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,7 +966,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1873,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
